--- a/scoresheets/MATCH73.xlsx
+++ b/scoresheets/MATCH73.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\OneDrive\Documents\college\freshman\spring\coaching\DUOACHATT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab4ea91dc20bd738/Documents/GitHub/DUOACHCATT-5-15-21-STATS/scoresheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863EB83F-0E47-44AD-8532-9129C0B924AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -915,251 +915,164 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1196,28 +1109,115 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1537,7 +1537,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1547,22 +1547,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="123" t="s">
+      <c r="C1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -1586,15 +1586,15 @@
       <c r="H2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1606,15 +1606,15 @@
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1624,15 +1624,15 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
     </row>
     <row r="5" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="60"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1642,15 +1642,15 @@
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1662,15 +1662,15 @@
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
@@ -1680,15 +1680,15 @@
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="63"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
@@ -1698,15 +1698,15 @@
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1718,15 +1718,15 @@
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="6" t="s">
         <v>1</v>
       </c>
@@ -1736,15 +1736,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="60"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
@@ -1754,15 +1754,15 @@
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -1774,15 +1774,15 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="62"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="15" t="s">
         <v>0</v>
       </c>
@@ -1792,15 +1792,15 @@
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="63"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
@@ -1810,15 +1810,15 @@
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="71" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1830,15 +1830,15 @@
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -1848,15 +1848,15 @@
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="60"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
@@ -1866,15 +1866,15 @@
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="62" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1886,15 +1886,15 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="62"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="15" t="s">
         <v>0</v>
       </c>
@@ -1904,15 +1904,15 @@
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
     </row>
     <row r="20" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="63"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="18" t="s">
         <v>9</v>
       </c>
@@ -1922,15 +1922,15 @@
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="71" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1942,15 +1942,15 @@
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
       </c>
@@ -1960,15 +1960,15 @@
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="60"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
@@ -1978,15 +1978,15 @@
       <c r="F23" s="10"/>
       <c r="G23" s="11"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="62" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -1998,15 +1998,15 @@
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A25" s="62"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="15" t="s">
         <v>0</v>
       </c>
@@ -2016,15 +2016,15 @@
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="63"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="18" t="s">
         <v>9</v>
       </c>
@@ -2034,15 +2034,15 @@
       <c r="F26" s="19"/>
       <c r="G26" s="20"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="71" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2054,15 +2054,15 @@
       <c r="F27" s="4"/>
       <c r="G27" s="5"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A28" s="59"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="6" t="s">
         <v>1</v>
       </c>
@@ -2072,15 +2072,15 @@
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
     </row>
     <row r="29" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="60"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="9" t="s">
         <v>9</v>
       </c>
@@ -2090,15 +2090,15 @@
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="62" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -2110,15 +2110,15 @@
       <c r="F30" s="22"/>
       <c r="G30" s="23"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A31" s="62"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="15" t="s">
         <v>0</v>
       </c>
@@ -2128,15 +2128,15 @@
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
     </row>
     <row r="32" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="63"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="24" t="s">
         <v>9</v>
       </c>
@@ -2146,82 +2146,67 @@
       <c r="F32" s="19"/>
       <c r="G32" s="20"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="56">
+      <c r="B33" s="78"/>
+      <c r="C33" s="72">
         <f>SUM(C3:C32)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="74">
         <f>SUM(D3:D32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="118">
+      <c r="E33" s="81">
         <f>SUM(E3:E32)+C33+D33</f>
         <v>0</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="72">
         <f>SUM(F3:F32)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="74">
         <f>SUM(G3:G32)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="54">
+      <c r="H33" s="83">
         <f>SUM(H3:H32)+F33+G33</f>
         <v>0</v>
       </c>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="117"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
     </row>
     <row r="34" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="L33:L34"/>
     <mergeCell ref="M33:M34"/>
@@ -2233,6 +2218,21 @@
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="J33:J34"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2250,914 +2250,914 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="65"/>
-      <c r="B1" s="67" t="str">
+      <c r="A1" s="97"/>
+      <c r="B1" s="85" t="str">
         <f>Category!C1</f>
         <v>Team A</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="73" t="str">
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="91" t="str">
         <f>Category!F1</f>
         <v>Team B</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="93"/>
     </row>
     <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="66"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="137"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="66"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="111"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="128"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="128"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="128"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="128"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="128"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="128"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="128"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="128"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="128"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="128"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="128"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="128"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="128"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="128"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="128"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="128"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="128"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="128"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="128"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="128"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="128"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="128"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="128"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="128"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="128"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="128"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="128"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="128"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="128"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="128"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="127"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="128"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="128"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="128"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="128"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="128"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="128"/>
-      <c r="B40" s="127"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="128"/>
-      <c r="B41" s="127"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="128"/>
-      <c r="B42" s="127"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="128"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="127"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="128"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="128"/>
-      <c r="B45" s="127"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="127"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="128"/>
-      <c r="B46" s="127"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="128"/>
-      <c r="B47" s="127"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="127"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="127"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="128"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="127"/>
-      <c r="I48" s="127"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="128"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
-      <c r="G49" s="127"/>
-      <c r="H49" s="127"/>
-      <c r="I49" s="127"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="128"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="127"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="128"/>
-      <c r="B51" s="127"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
-      <c r="G51" s="127"/>
-      <c r="H51" s="127"/>
-      <c r="I51" s="127"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="128"/>
-      <c r="B52" s="127"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="127"/>
-      <c r="I52" s="127"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="128"/>
-      <c r="B53" s="127"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="127"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="128"/>
-      <c r="B54" s="127"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="127"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="127"/>
-      <c r="G54" s="127"/>
-      <c r="H54" s="127"/>
-      <c r="I54" s="127"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="128"/>
-      <c r="B55" s="127"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="127"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="127"/>
-      <c r="G55" s="127"/>
-      <c r="H55" s="127"/>
-      <c r="I55" s="127"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="128"/>
-      <c r="B56" s="127"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="127"/>
-      <c r="I56" s="127"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="128"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="128"/>
-      <c r="B58" s="127"/>
-      <c r="C58" s="127"/>
-      <c r="D58" s="127"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="127"/>
-      <c r="G58" s="127"/>
-      <c r="H58" s="127"/>
-      <c r="I58" s="127"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="128"/>
-      <c r="B59" s="127"/>
-      <c r="C59" s="127"/>
-      <c r="D59" s="127"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="127"/>
-      <c r="G59" s="127"/>
-      <c r="H59" s="127"/>
-      <c r="I59" s="127"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="128"/>
-      <c r="B60" s="127"/>
-      <c r="C60" s="127"/>
-      <c r="D60" s="127"/>
-      <c r="E60" s="127"/>
-      <c r="F60" s="127"/>
-      <c r="G60" s="127"/>
-      <c r="H60" s="127"/>
-      <c r="I60" s="127"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="128"/>
-      <c r="B61" s="127"/>
-      <c r="C61" s="127"/>
-      <c r="D61" s="127"/>
-      <c r="E61" s="127"/>
-      <c r="F61" s="127"/>
-      <c r="G61" s="127"/>
-      <c r="H61" s="127"/>
-      <c r="I61" s="127"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="128"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="127"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="127"/>
-      <c r="G62" s="127"/>
-      <c r="H62" s="127"/>
-      <c r="I62" s="127"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="128"/>
-      <c r="B63" s="127"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="127"/>
-      <c r="F63" s="127"/>
-      <c r="G63" s="127"/>
-      <c r="H63" s="127"/>
-      <c r="I63" s="127"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="128"/>
-      <c r="B64" s="127"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
-      <c r="G64" s="127"/>
-      <c r="H64" s="127"/>
-      <c r="I64" s="127"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="128"/>
-      <c r="B65" s="127"/>
-      <c r="C65" s="127"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="127"/>
-      <c r="G65" s="127"/>
-      <c r="H65" s="127"/>
-      <c r="I65" s="127"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="128"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="127"/>
-      <c r="D66" s="127"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="127"/>
-      <c r="H66" s="127"/>
-      <c r="I66" s="127"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="128"/>
-      <c r="B67" s="127"/>
-      <c r="C67" s="127"/>
-      <c r="D67" s="127"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="127"/>
-      <c r="G67" s="127"/>
-      <c r="H67" s="127"/>
-      <c r="I67" s="127"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="128"/>
-      <c r="B68" s="127"/>
-      <c r="C68" s="127"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="127"/>
-      <c r="G68" s="127"/>
-      <c r="H68" s="127"/>
-      <c r="I68" s="127"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="128"/>
-      <c r="B69" s="127"/>
-      <c r="C69" s="127"/>
-      <c r="D69" s="127"/>
-      <c r="E69" s="127"/>
-      <c r="F69" s="127"/>
-      <c r="G69" s="127"/>
-      <c r="H69" s="127"/>
-      <c r="I69" s="127"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="128"/>
-      <c r="B70" s="127"/>
-      <c r="C70" s="127"/>
-      <c r="D70" s="127"/>
-      <c r="E70" s="127"/>
-      <c r="F70" s="127"/>
-      <c r="G70" s="127"/>
-      <c r="H70" s="127"/>
-      <c r="I70" s="127"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="128"/>
-      <c r="B71" s="127"/>
-      <c r="C71" s="127"/>
-      <c r="D71" s="127"/>
-      <c r="E71" s="127"/>
-      <c r="F71" s="127"/>
-      <c r="G71" s="127"/>
-      <c r="H71" s="127"/>
-      <c r="I71" s="127"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="128"/>
-      <c r="B72" s="127"/>
-      <c r="C72" s="127"/>
-      <c r="D72" s="127"/>
-      <c r="E72" s="127"/>
-      <c r="F72" s="127"/>
-      <c r="G72" s="127"/>
-      <c r="H72" s="127"/>
-      <c r="I72" s="127"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="128"/>
-      <c r="B73" s="127"/>
-      <c r="C73" s="127"/>
-      <c r="D73" s="127"/>
-      <c r="E73" s="127"/>
-      <c r="F73" s="127"/>
-      <c r="G73" s="127"/>
-      <c r="H73" s="127"/>
-      <c r="I73" s="127"/>
+      <c r="A73" s="49"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="128"/>
-      <c r="B74" s="127"/>
-      <c r="C74" s="127"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="127"/>
-      <c r="F74" s="127"/>
-      <c r="G74" s="127"/>
-      <c r="H74" s="127"/>
-      <c r="I74" s="127"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="128"/>
-      <c r="B75" s="127"/>
-      <c r="C75" s="127"/>
-      <c r="D75" s="127"/>
-      <c r="E75" s="127"/>
-      <c r="F75" s="127"/>
-      <c r="G75" s="127"/>
-      <c r="H75" s="127"/>
-      <c r="I75" s="127"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="128"/>
-      <c r="B76" s="127"/>
-      <c r="C76" s="127"/>
-      <c r="D76" s="127"/>
-      <c r="E76" s="127"/>
-      <c r="F76" s="127"/>
-      <c r="G76" s="127"/>
-      <c r="H76" s="127"/>
-      <c r="I76" s="127"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="128"/>
-      <c r="B77" s="127"/>
-      <c r="C77" s="127"/>
-      <c r="D77" s="127"/>
-      <c r="E77" s="127"/>
-      <c r="F77" s="127"/>
-      <c r="G77" s="127"/>
-      <c r="H77" s="127"/>
-      <c r="I77" s="127"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="128"/>
-      <c r="B78" s="127"/>
-      <c r="C78" s="127"/>
-      <c r="D78" s="127"/>
-      <c r="E78" s="127"/>
-      <c r="F78" s="127"/>
-      <c r="G78" s="127"/>
-      <c r="H78" s="127"/>
-      <c r="I78" s="127"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="128"/>
-      <c r="B79" s="127"/>
-      <c r="C79" s="127"/>
-      <c r="D79" s="127"/>
-      <c r="E79" s="127"/>
-      <c r="F79" s="127"/>
-      <c r="G79" s="127"/>
-      <c r="H79" s="127"/>
-      <c r="I79" s="127"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="128"/>
-      <c r="B80" s="127"/>
-      <c r="C80" s="127"/>
-      <c r="D80" s="127"/>
-      <c r="E80" s="127"/>
-      <c r="F80" s="127"/>
-      <c r="G80" s="127"/>
-      <c r="H80" s="127"/>
-      <c r="I80" s="127"/>
+      <c r="A80" s="49"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="128"/>
-      <c r="B81" s="127"/>
-      <c r="C81" s="127"/>
-      <c r="D81" s="127"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="127"/>
-      <c r="G81" s="127"/>
-      <c r="H81" s="127"/>
-      <c r="I81" s="127"/>
+      <c r="A81" s="49"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="128"/>
-      <c r="B82" s="127"/>
-      <c r="C82" s="127"/>
-      <c r="D82" s="127"/>
-      <c r="E82" s="127"/>
-      <c r="F82" s="127"/>
-      <c r="G82" s="127"/>
-      <c r="H82" s="127"/>
-      <c r="I82" s="127"/>
+      <c r="A82" s="49"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3184,24 +3184,24 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
-      <c r="C1" s="120" t="str">
+      <c r="C1" s="65" t="str">
         <f>Category!C1</f>
         <v>Team A</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="123" t="str">
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68" t="str">
         <f>Category!F1</f>
         <v>Team B</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
@@ -3230,15 +3230,15 @@
       <c r="H2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="79">
+      <c r="A3" s="112">
         <v>5</v>
       </c>
       <c r="B3" s="29">
@@ -3250,15 +3250,15 @@
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="80"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="30">
         <v>2</v>
       </c>
@@ -3268,15 +3268,15 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="80"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="30">
         <v>3</v>
       </c>
@@ -3286,15 +3286,15 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="80"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="30">
         <v>4</v>
       </c>
@@ -3304,15 +3304,15 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="81"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="31">
         <v>5</v>
       </c>
@@ -3322,15 +3322,15 @@
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="82">
+      <c r="A8" s="115">
         <v>10</v>
       </c>
       <c r="B8" s="32">
@@ -3342,15 +3342,15 @@
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="83"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="33">
         <v>7</v>
       </c>
@@ -3360,15 +3360,15 @@
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="83"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="33">
         <v>8</v>
       </c>
@@ -3378,15 +3378,15 @@
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="83"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="33">
         <v>9</v>
       </c>
@@ -3396,15 +3396,15 @@
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="84"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="34">
         <v>10</v>
       </c>
@@ -3414,15 +3414,15 @@
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="79">
+      <c r="A13" s="112">
         <v>15</v>
       </c>
       <c r="B13" s="29">
@@ -3434,15 +3434,15 @@
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="80"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="30">
         <v>12</v>
       </c>
@@ -3452,15 +3452,15 @@
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="80"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="30">
         <v>13</v>
       </c>
@@ -3470,15 +3470,15 @@
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="80"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="30">
         <v>14</v>
       </c>
@@ -3488,15 +3488,15 @@
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="81"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="31">
         <v>15</v>
       </c>
@@ -3506,15 +3506,15 @@
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="82">
+      <c r="A18" s="115">
         <v>20</v>
       </c>
       <c r="B18" s="32">
@@ -3526,15 +3526,15 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="83"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="33">
         <v>17</v>
       </c>
@@ -3544,15 +3544,15 @@
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="83"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="33">
         <v>18</v>
       </c>
@@ -3562,15 +3562,15 @@
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="83"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="33">
         <v>19</v>
       </c>
@@ -3580,15 +3580,15 @@
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="84"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="34">
         <v>20</v>
       </c>
@@ -3598,15 +3598,15 @@
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="79">
+      <c r="A23" s="112">
         <v>25</v>
       </c>
       <c r="B23" s="29">
@@ -3618,15 +3618,15 @@
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="80"/>
+      <c r="A24" s="113"/>
       <c r="B24" s="30">
         <v>22</v>
       </c>
@@ -3636,15 +3636,15 @@
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A25" s="80"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="30">
         <v>23</v>
       </c>
@@ -3654,15 +3654,15 @@
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A26" s="80"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="30">
         <v>24</v>
       </c>
@@ -3672,15 +3672,15 @@
       <c r="F26" s="7"/>
       <c r="G26" s="8"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="81"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="31">
         <v>25</v>
       </c>
@@ -3690,15 +3690,15 @@
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A28" s="83">
+      <c r="A28" s="116">
         <v>30</v>
       </c>
       <c r="B28" s="35">
@@ -3710,15 +3710,15 @@
       <c r="F28" s="22"/>
       <c r="G28" s="23"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A29" s="83"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="33">
         <v>27</v>
       </c>
@@ -3728,15 +3728,15 @@
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="83"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="33">
         <v>28</v>
       </c>
@@ -3746,15 +3746,15 @@
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A31" s="83"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="33">
         <v>29</v>
       </c>
@@ -3764,15 +3764,15 @@
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
     </row>
     <row r="32" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="84"/>
+      <c r="A32" s="117"/>
       <c r="B32" s="34">
         <v>30</v>
       </c>
@@ -3782,82 +3782,82 @@
       <c r="F32" s="19"/>
       <c r="G32" s="20"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="56">
+      <c r="B33" s="78"/>
+      <c r="C33" s="72">
         <f>SUM(C3:C32)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="74">
         <f>SUM(D3:D32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="83">
         <f>SUM(E3:E32)+C33+D33</f>
         <v>0</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="72">
         <f>SUM(F3:F32)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="74">
         <f>SUM(G3:G32)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="118">
         <f>SUM(H3:H32)+F33+G33</f>
         <v>0</v>
       </c>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="128"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
     </row>
     <row r="34" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="128"/>
-      <c r="M34" s="128"/>
-      <c r="N34" s="128"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="A33:B34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A28:A32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3874,190 +3874,185 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="101"/>
-      <c r="B1" s="101"/>
-      <c r="C1" s="102" t="str">
+      <c r="A1" s="120"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="121" t="str">
         <f>Category!C1</f>
         <v>Team A</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="108" t="str">
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="127" t="str">
         <f>Category!F1</f>
         <v>Team B</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="129"/>
     </row>
     <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="113"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="132"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="89">
+      <c r="B3" s="134"/>
+      <c r="C3" s="133">
         <f>Category!E33</f>
         <v>0</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="89">
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="133">
         <f>Category!H33</f>
         <v>0</v>
       </c>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="90"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="134"/>
     </row>
     <row r="4" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="92"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="95">
+      <c r="B5" s="145"/>
+      <c r="C5" s="143">
         <f>Alphabet!B3</f>
         <v>0</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="95">
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="143">
         <f>Alphabet!F3</f>
         <v>0</v>
       </c>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="97"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="145"/>
     </row>
     <row r="6" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="98"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="100"/>
+      <c r="A6" s="146"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="148"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="89">
+      <c r="B7" s="134"/>
+      <c r="C7" s="133">
         <f>Lightning!E33</f>
         <v>0</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="89">
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="133">
         <f>Lightning!H33</f>
         <v>0</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="90"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="134"/>
     </row>
     <row r="8" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="91"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="92"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="136"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="67">
+      <c r="B9" s="140"/>
+      <c r="C9" s="85">
         <f>SUM(C3:G8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="73">
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="91">
         <f>SUM(H3:L8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="75"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
     </row>
     <row r="10" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="78"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G2"/>
-    <mergeCell ref="H1:L2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:G4"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="C9:G10"/>
     <mergeCell ref="H9:L10"/>
@@ -4068,6 +4063,11 @@
     <mergeCell ref="C7:G8"/>
     <mergeCell ref="H7:L8"/>
     <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="H1:L2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4101,15 +4101,15 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="142" t="str">
+      <c r="A2" s="51" t="str">
         <f>Category!C2</f>
         <v>A1</v>
       </c>
       <c r="B2" s="36">
-        <f t="shared" ref="B2:B11" si="0">3*C2+2*D2</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="145">
+        <f t="shared" ref="B2:B5" si="0">3*C2+2*D2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="54">
         <f>COUNTIF(Category!C3:C32, "&gt;2")+COUNTIF(Lightning!C3:C32, "&gt;2")</f>
         <v>0</v>
       </c>
@@ -4119,7 +4119,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="143" t="str">
+      <c r="A3" s="52" t="str">
         <f>Category!D2</f>
         <v>A2</v>
       </c>
@@ -4127,7 +4127,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C3" s="146">
+      <c r="C3" s="55">
         <f>COUNTIF(Category!D3:D32, "&gt;2")+COUNTIF(Lightning!D3:D32, "&gt;2")</f>
         <v>0</v>
       </c>
@@ -4137,7 +4137,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="143" t="str">
+      <c r="A4" s="52" t="str">
         <f>Category!F2</f>
         <v>B1</v>
       </c>
@@ -4145,7 +4145,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="147">
+      <c r="C4" s="56">
         <f>COUNTIF(Category!F3:F32, "&gt;2")+COUNTIF(Lightning!F3:F32, "&gt;2")</f>
         <v>0</v>
       </c>
@@ -4155,7 +4155,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="144" t="str">
+      <c r="A5" s="53" t="str">
         <f>Category!G2</f>
         <v>B2</v>
       </c>
@@ -4163,7 +4163,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C5" s="148">
+      <c r="C5" s="57">
         <f>COUNTIF(Category!G3:G32,"&gt;2")+COUNTIF(Lightning!G3:G32,"&gt;2")</f>
         <v>0</v>
       </c>
@@ -4173,40 +4173,40 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="141"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="115"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="115"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="115"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
     </row>
     <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="115"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="115"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4238,14 +4238,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="142" t="str" cm="1">
+      <c r="A2" s="51" t="str" cm="1">
         <f t="array" ref="A2:D5">_xlfn._xlws.SORT(Individuals_Raw!A2:D5, 2, -1)</f>
         <v>A1</v>
       </c>
       <c r="B2" s="36">
         <v>0</v>
       </c>
-      <c r="C2" s="145">
+      <c r="C2" s="54">
         <v>0</v>
       </c>
       <c r="D2" s="40">
@@ -4253,13 +4253,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="143" t="str">
+      <c r="A3" s="52" t="str">
         <v>A2</v>
       </c>
       <c r="B3" s="37">
         <v>0</v>
       </c>
-      <c r="C3" s="146">
+      <c r="C3" s="55">
         <v>0</v>
       </c>
       <c r="D3" s="41">
@@ -4267,13 +4267,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="143" t="str">
+      <c r="A4" s="52" t="str">
         <v>B1</v>
       </c>
       <c r="B4" s="37">
         <v>0</v>
       </c>
-      <c r="C4" s="147">
+      <c r="C4" s="56">
         <v>0</v>
       </c>
       <c r="D4" s="41">
@@ -4281,13 +4281,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="144" t="str">
+      <c r="A5" s="53" t="str">
         <v>B2</v>
       </c>
       <c r="B5" s="38">
         <v>0</v>
       </c>
-      <c r="C5" s="148">
+      <c r="C5" s="57">
         <v>0</v>
       </c>
       <c r="D5" s="42">
@@ -4295,40 +4295,40 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
     </row>
     <row r="7" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
     </row>
     <row r="8" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="115"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
     </row>
     <row r="9" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="115"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="115"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
     </row>
     <row r="11" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
